--- a/biology/Médecine/André_Lemierre/André_Lemierre.xlsx
+++ b/biology/Médecine/André_Lemierre/André_Lemierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Lemierre</t>
+          <t>André_Lemierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Alfred Lemierre (né le 30 juillet 1875 à Paris et mort le 11 août 1956 à La Bernerie-en-Retz) est un bactériologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Lemierre</t>
+          <t>André_Lemierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Paris où il devient externe en médecine en 1896 et interne en 1900. En 1904 il obtient son doctorat, devient médecin des hôpitaux en 1912 et travaille ensuite à l'hôpital Bichat. En 1926 il est promu professeur de bactériologie.
-Ses travaux concernent les septicémies, le typhus, les infections des voies biliaires et urinaires, les maladies des reins, etc. Il a décrit le syndrome de Lemierre en 1936 alors qu'il travaillait comme un bactériologiste à l'hôpital Claude-Bernard à Paris. Il est membre du comité médical de la Résistance avec Gabriel Richet. Il est le beau-père de Paul Milliez[1]. Il était un ami très proche du docteur Albert Besson, chez qui il venait très souvent.
+Ses travaux concernent les septicémies, le typhus, les infections des voies biliaires et urinaires, les maladies des reins, etc. Il a décrit le syndrome de Lemierre en 1936 alors qu'il travaillait comme un bactériologiste à l'hôpital Claude-Bernard à Paris. Il est membre du comité médical de la Résistance avec Gabriel Richet. Il est le beau-père de Paul Milliez. Il était un ami très proche du docteur Albert Besson, chez qui il venait très souvent.
 </t>
         </is>
       </c>
